--- a/src/uploads/excelEducacion/Modulo Educacion.xlsx
+++ b/src/uploads/excelEducacion/Modulo Educacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{442E4009-9DC8-4C71-BDF6-C7AF610B819A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5343D4-6C0D-4EDB-B7CB-51EFD251C074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{90EB25CA-815B-404A-B05F-28DE62DAFF5C}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>personal</t>
   </si>
   <si>
-    <t>N de NIC</t>
-  </si>
-  <si>
     <t>Nombre del cliente</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>L paez</t>
+  </si>
+  <si>
+    <t>N de NIT</t>
   </si>
 </sst>
 </file>
@@ -214,14 +214,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +559,7 @@
   <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -569,10 +569,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
@@ -595,10 +595,10 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>15</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -613,10 +613,10 @@
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>50</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -624,7 +624,7 @@
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <f>F5/F6*100</f>
         <v>30</v>
       </c>
@@ -638,10 +638,10 @@
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>25</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -649,10 +649,10 @@
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>50</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -660,14 +660,14 @@
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <f>F11/F12*100</f>
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
         <v>1234567890</v>
@@ -675,34 +675,34 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/uploads/excelEducacion/Modulo Educacion.xlsx
+++ b/src/uploads/excelEducacion/Modulo Educacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5343D4-6C0D-4EDB-B7CB-51EFD251C074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CEAC0A-46D4-48E5-8334-D7E6C91BFB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{90EB25CA-815B-404A-B05F-28DE62DAFF5C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Personal Capacitado</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>N de NIT</t>
+  </si>
+  <si>
+    <t>sede</t>
+  </si>
+  <si>
+    <t>Pereira</t>
   </si>
 </sst>
 </file>
@@ -208,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -222,6 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DF1A31-BA32-4462-9D71-01F732F8596F}">
-  <dimension ref="B3:G19"/>
+  <dimension ref="B3:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -705,6 +712,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:C3"/>

--- a/src/uploads/excelEducacion/Modulo Educacion.xlsx
+++ b/src/uploads/excelEducacion/Modulo Educacion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CEAC0A-46D4-48E5-8334-D7E6C91BFB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F189C42-9B98-406D-9215-8C4997FCC0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{90EB25CA-815B-404A-B05F-28DE62DAFF5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{90EB25CA-815B-404A-B05F-28DE62DAFF5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -95,13 +93,13 @@
     <t>Alimentos</t>
   </si>
   <si>
-    <t>Enero</t>
-  </si>
-  <si>
     <t>L paez</t>
   </si>
   <si>
     <t>N de NIT</t>
+  </si>
+  <si>
+    <t>Febrero</t>
   </si>
   <si>
     <t>sede</t>
@@ -114,12 +112,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD8D8D8"/>
+      <name val="__Quicksand_f103ae"/>
     </font>
   </fonts>
   <fills count="2">
@@ -130,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -210,11 +213,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -228,7 +242,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,22 +581,22 @@
   <dimension ref="B3:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -592,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -609,7 +624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -627,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7">
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
@@ -636,12 +651,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7">
       <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7">
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
@@ -652,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7">
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
@@ -663,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7">
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
@@ -672,15 +687,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="15">
       <c r="B15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10">
+        <v>12345678445</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
@@ -688,7 +703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
@@ -696,23 +711,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
@@ -725,5 +740,6 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>